--- a/table_of_mean_monthly_rates_with_std_deviation.xlsx
+++ b/table_of_mean_monthly_rates_with_std_deviation.xlsx
@@ -82,7 +82,7 @@
     <t>Monthly ET Rates (mm/month)</t>
   </si>
   <si>
-    <t>Monthly EToF (unitless)s</t>
+    <t>Monthly EToF (unitless)</t>
   </si>
 </sst>
 </file>
@@ -1068,40 +1068,40 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>4.499</v>
+        <v>0.186</v>
       </c>
       <c r="D19">
-        <v>8.962</v>
+        <v>0.234</v>
       </c>
       <c r="E19">
-        <v>24.703</v>
+        <v>0.333</v>
       </c>
       <c r="F19">
-        <v>47.538</v>
+        <v>0.472</v>
       </c>
       <c r="G19">
-        <v>70.88</v>
+        <v>0.516</v>
       </c>
       <c r="H19">
-        <v>97.446</v>
+        <v>0.535</v>
       </c>
       <c r="I19">
-        <v>104.739</v>
+        <v>0.582</v>
       </c>
       <c r="J19">
-        <v>86.048</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K19">
-        <v>59.697</v>
+        <v>0.527</v>
       </c>
       <c r="L19">
-        <v>39.06</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="M19">
-        <v>17.684</v>
+        <v>0.433</v>
       </c>
       <c r="N19">
-        <v>6.161</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1110,40 +1110,40 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1.815</v>
+        <v>0.064</v>
       </c>
       <c r="D20">
-        <v>4.77</v>
+        <v>0.101</v>
       </c>
       <c r="E20">
-        <v>11.72</v>
+        <v>0.126</v>
       </c>
       <c r="F20">
-        <v>7.352</v>
+        <v>0.062</v>
       </c>
       <c r="G20">
-        <v>8.766999999999999</v>
+        <v>0.054</v>
       </c>
       <c r="H20">
-        <v>10.412</v>
+        <v>0.074</v>
       </c>
       <c r="I20">
-        <v>9.720000000000001</v>
+        <v>0.057</v>
       </c>
       <c r="J20">
-        <v>10.945</v>
+        <v>0.064</v>
       </c>
       <c r="K20">
-        <v>6.289</v>
+        <v>0.066</v>
       </c>
       <c r="L20">
-        <v>6.577</v>
+        <v>0.126</v>
       </c>
       <c r="M20">
-        <v>4.319</v>
+        <v>0.119</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1154,40 +1154,40 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.201</v>
+        <v>0.097</v>
       </c>
       <c r="D21">
-        <v>3.485</v>
+        <v>0.124</v>
       </c>
       <c r="E21">
-        <v>14.059</v>
+        <v>0.259</v>
       </c>
       <c r="F21">
-        <v>32.058</v>
+        <v>0.398</v>
       </c>
       <c r="G21">
-        <v>66.78100000000001</v>
+        <v>0.593</v>
       </c>
       <c r="H21">
-        <v>122.735</v>
+        <v>0.801</v>
       </c>
       <c r="I21">
-        <v>152.335</v>
+        <v>0.905</v>
       </c>
       <c r="J21">
-        <v>129.987</v>
+        <v>0.84</v>
       </c>
       <c r="K21">
-        <v>77.80800000000001</v>
+        <v>0.695</v>
       </c>
       <c r="L21">
-        <v>39.303</v>
+        <v>0.579</v>
       </c>
       <c r="M21">
-        <v>11.881</v>
+        <v>0.369</v>
       </c>
       <c r="N21">
-        <v>3.105</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1196,40 +1196,40 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.042</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D22">
-        <v>2.396</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E22">
-        <v>6.483</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F22">
-        <v>6.936</v>
+        <v>0.064</v>
       </c>
       <c r="G22">
-        <v>14.217</v>
+        <v>0.08</v>
       </c>
       <c r="H22">
-        <v>19.89</v>
+        <v>0.096</v>
       </c>
       <c r="I22">
-        <v>14.005</v>
+        <v>0.077</v>
       </c>
       <c r="J22">
-        <v>13.233</v>
+        <v>0.078</v>
       </c>
       <c r="K22">
-        <v>11.043</v>
+        <v>0.095</v>
       </c>
       <c r="L22">
-        <v>7.715</v>
+        <v>0.106</v>
       </c>
       <c r="M22">
-        <v>4.499</v>
+        <v>0.112</v>
       </c>
       <c r="N22">
-        <v>2.993</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1240,40 +1240,40 @@
         <v>19</v>
       </c>
       <c r="C23">
-        <v>4.071</v>
+        <v>0.184</v>
       </c>
       <c r="D23">
-        <v>7.065</v>
+        <v>0.223</v>
       </c>
       <c r="E23">
-        <v>20.18</v>
+        <v>0.312</v>
       </c>
       <c r="F23">
-        <v>40.057</v>
+        <v>0.426</v>
       </c>
       <c r="G23">
-        <v>69.983</v>
+        <v>0.551</v>
       </c>
       <c r="H23">
-        <v>107.945</v>
+        <v>0.636</v>
       </c>
       <c r="I23">
-        <v>117.283</v>
+        <v>0.657</v>
       </c>
       <c r="J23">
-        <v>98.03</v>
+        <v>0.63</v>
       </c>
       <c r="K23">
-        <v>72.745</v>
+        <v>0.627</v>
       </c>
       <c r="L23">
-        <v>40.729</v>
+        <v>0.569</v>
       </c>
       <c r="M23">
-        <v>17.877</v>
+        <v>0.445</v>
       </c>
       <c r="N23">
-        <v>5.804</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1282,40 +1282,40 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>2.6</v>
+        <v>0.102</v>
       </c>
       <c r="D24">
-        <v>3.832</v>
+        <v>0.107</v>
       </c>
       <c r="E24">
-        <v>8.599</v>
+        <v>0.109</v>
       </c>
       <c r="F24">
-        <v>7.708</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G24">
-        <v>10.163</v>
+        <v>0.066</v>
       </c>
       <c r="H24">
-        <v>10.712</v>
+        <v>0.079</v>
       </c>
       <c r="I24">
-        <v>14.46</v>
+        <v>0.082</v>
       </c>
       <c r="J24">
-        <v>15.594</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K24">
-        <v>11.122</v>
+        <v>0.091</v>
       </c>
       <c r="L24">
-        <v>8.093</v>
+        <v>0.103</v>
       </c>
       <c r="M24">
-        <v>3.863</v>
+        <v>0.096</v>
       </c>
       <c r="N24">
-        <v>2.039</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1326,40 +1326,40 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <v>4.361</v>
+        <v>0.167</v>
       </c>
       <c r="D25">
-        <v>8.343999999999999</v>
+        <v>0.206</v>
       </c>
       <c r="E25">
-        <v>25.412</v>
+        <v>0.335</v>
       </c>
       <c r="F25">
-        <v>48.055</v>
+        <v>0.452</v>
       </c>
       <c r="G25">
-        <v>75.52500000000001</v>
+        <v>0.553</v>
       </c>
       <c r="H25">
-        <v>111.328</v>
+        <v>0.614</v>
       </c>
       <c r="I25">
-        <v>116.735</v>
+        <v>0.654</v>
       </c>
       <c r="J25">
-        <v>99.126</v>
+        <v>0.651</v>
       </c>
       <c r="K25">
-        <v>66.613</v>
+        <v>0.594</v>
       </c>
       <c r="L25">
-        <v>41.367</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="M25">
-        <v>17.975</v>
+        <v>0.449</v>
       </c>
       <c r="N25">
-        <v>7.191</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1368,40 +1368,40 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <v>1.988</v>
+        <v>0.068</v>
       </c>
       <c r="D26">
-        <v>4.396</v>
+        <v>0.076</v>
       </c>
       <c r="E26">
-        <v>10.337</v>
+        <v>0.098</v>
       </c>
       <c r="F26">
-        <v>9.244999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="G26">
-        <v>10.628</v>
+        <v>0.04</v>
       </c>
       <c r="H26">
-        <v>12.121</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I26">
-        <v>13.501</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J26">
-        <v>13.296</v>
+        <v>0.077</v>
       </c>
       <c r="K26">
-        <v>6.598</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L26">
-        <v>6.024</v>
+        <v>0.045</v>
       </c>
       <c r="M26">
-        <v>3.095</v>
+        <v>0.079</v>
       </c>
       <c r="N26">
-        <v>2.083</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1412,40 +1412,40 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>4.499</v>
+        <v>0.186</v>
       </c>
       <c r="D27">
-        <v>8.962</v>
+        <v>0.234</v>
       </c>
       <c r="E27">
-        <v>24.703</v>
+        <v>0.333</v>
       </c>
       <c r="F27">
-        <v>47.538</v>
+        <v>0.472</v>
       </c>
       <c r="G27">
-        <v>70.88</v>
+        <v>0.516</v>
       </c>
       <c r="H27">
-        <v>97.446</v>
+        <v>0.535</v>
       </c>
       <c r="I27">
-        <v>104.739</v>
+        <v>0.582</v>
       </c>
       <c r="J27">
-        <v>86.048</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K27">
-        <v>59.697</v>
+        <v>0.527</v>
       </c>
       <c r="L27">
-        <v>39.06</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="M27">
-        <v>17.684</v>
+        <v>0.433</v>
       </c>
       <c r="N27">
-        <v>6.161</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1454,40 +1454,40 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>1.815</v>
+        <v>0.064</v>
       </c>
       <c r="D28">
-        <v>4.77</v>
+        <v>0.101</v>
       </c>
       <c r="E28">
-        <v>11.72</v>
+        <v>0.126</v>
       </c>
       <c r="F28">
-        <v>7.352</v>
+        <v>0.062</v>
       </c>
       <c r="G28">
-        <v>8.766999999999999</v>
+        <v>0.054</v>
       </c>
       <c r="H28">
-        <v>10.412</v>
+        <v>0.074</v>
       </c>
       <c r="I28">
-        <v>9.720000000000001</v>
+        <v>0.057</v>
       </c>
       <c r="J28">
-        <v>10.945</v>
+        <v>0.064</v>
       </c>
       <c r="K28">
-        <v>6.289</v>
+        <v>0.066</v>
       </c>
       <c r="L28">
-        <v>6.577</v>
+        <v>0.126</v>
       </c>
       <c r="M28">
-        <v>4.319</v>
+        <v>0.119</v>
       </c>
       <c r="N28">
-        <v>2.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1498,40 +1498,40 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>10.303</v>
+        <v>0.275</v>
       </c>
       <c r="D29">
-        <v>16.952</v>
+        <v>0.309</v>
       </c>
       <c r="E29">
-        <v>35.536</v>
+        <v>0.373</v>
       </c>
       <c r="F29">
-        <v>52.813</v>
+        <v>0.4</v>
       </c>
       <c r="G29">
-        <v>66.712</v>
+        <v>0.406</v>
       </c>
       <c r="H29">
-        <v>91.589</v>
+        <v>0.446</v>
       </c>
       <c r="I29">
-        <v>99.526</v>
+        <v>0.526</v>
       </c>
       <c r="J29">
-        <v>86.996</v>
+        <v>0.535</v>
       </c>
       <c r="K29">
-        <v>65.53</v>
+        <v>0.509</v>
       </c>
       <c r="L29">
-        <v>46.054</v>
+        <v>0.496</v>
       </c>
       <c r="M29">
-        <v>30.315</v>
+        <v>0.517</v>
       </c>
       <c r="N29">
-        <v>14.028</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1540,40 +1540,40 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>3.505</v>
+        <v>0.09</v>
       </c>
       <c r="D30">
-        <v>6.926</v>
+        <v>0.103</v>
       </c>
       <c r="E30">
-        <v>9.411</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F30">
-        <v>4.025</v>
+        <v>0.036</v>
       </c>
       <c r="G30">
-        <v>4.261</v>
+        <v>0.036</v>
       </c>
       <c r="H30">
-        <v>6.593</v>
+        <v>0.052</v>
       </c>
       <c r="I30">
-        <v>8.234</v>
+        <v>0.051</v>
       </c>
       <c r="J30">
-        <v>11.646</v>
+        <v>0.055</v>
       </c>
       <c r="K30">
-        <v>6.684</v>
+        <v>0.054</v>
       </c>
       <c r="L30">
-        <v>3.146</v>
+        <v>0.049</v>
       </c>
       <c r="M30">
-        <v>2.419</v>
+        <v>0.06</v>
       </c>
       <c r="N30">
-        <v>2.767</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
   </sheetData>
